--- a/Hmwk/assignment#3.xlsx
+++ b/Hmwk/assignment#3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="8040" windowWidth="28800" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>lg n</t>
   </si>
@@ -44,28 +44,79 @@
     <t>n^3</t>
   </si>
   <si>
-    <t>2n</t>
-  </si>
-  <si>
     <t>n!</t>
   </si>
   <si>
-    <t>1 sec</t>
-  </si>
-  <si>
-    <t>1 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 hour</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> month</t>
-  </si>
-  <si>
-    <t>1 year</t>
+    <t>1 sec=10^6ms</t>
+  </si>
+  <si>
+    <t>1 min=6*10^7ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 hour=3.6*10^9</t>
+  </si>
+  <si>
+    <t>1 day=8.64*10^10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1month=2.592*10^12</t>
+  </si>
+  <si>
+    <t>1 year=3.1104*10^13</t>
+  </si>
+  <si>
+    <t>10^30000</t>
+  </si>
+  <si>
+    <t>2^n</t>
+  </si>
+  <si>
+    <t>2.8*10^6</t>
+  </si>
+  <si>
+    <t>1.3*10^8</t>
+  </si>
+  <si>
+    <t>2.7*10^9</t>
+  </si>
+  <si>
+    <t>6.7*10^10</t>
+  </si>
+  <si>
+    <t>8.0*10611</t>
+  </si>
+  <si>
+    <t>5.5E+1083707984</t>
+  </si>
+  <si>
+    <t>2.5E+1083707984</t>
+  </si>
+  <si>
+    <t>2.3E+26008991625</t>
+  </si>
+  <si>
+    <t>2.2E+782677988726</t>
+  </si>
+  <si>
+    <t>2.6E+948244863415</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>The program proved it</t>
+  </si>
+  <si>
+    <t>attactment</t>
   </si>
 </sst>
 </file>
@@ -101,9 +152,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -383,124 +446,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2">
+        <f>POWER(B5,2)</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:G4" si="0">POWER(C5,2)</f>
+        <v>3600000000000000</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.296E+19</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.46496E+21</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7184639999999997E+24</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>9.67458816E+26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C5" s="3">
+        <f>B5*60</f>
+        <v>60000000</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5*60</f>
+        <v>3600000000</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5*24</f>
+        <v>86400000000</v>
+      </c>
+      <c r="F5" s="3">
+        <f>E5*30</f>
+        <v>2592000000000</v>
+      </c>
+      <c r="G5" s="3">
+        <f>F5*12</f>
+        <v>31104000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>63000</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2">
+        <f>SQRT(B5)</f>
+        <v>1000</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:G7" si="1">SQRT(C5)</f>
+        <v>7745.9666924148341</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>293938.76913398138</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>1609968.9437998487</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>5577096.0185386799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2">
+        <f>POWER(B5,1/3)</f>
+        <v>99.999999999999957</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:G8" si="2">POWER(C5,1/3)</f>
+        <v>391.48676411688615</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="2"/>
+        <v>1532.6188647871065</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>4420.8377983684622</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>13736.570910639979</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>31448.896730506764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5">
+        <v>41</v>
+      </c>
+      <c r="G9" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hmwk/assignment#3.xlsx
+++ b/Hmwk/assignment#3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="6780" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>1 year=3.1104*10^13</t>
   </si>
   <si>
-    <t>10^30000</t>
-  </si>
-  <si>
     <t>2^n</t>
   </si>
   <si>
@@ -86,21 +83,6 @@
     <t>8.0*10611</t>
   </si>
   <si>
-    <t>5.5E+1083707984</t>
-  </si>
-  <si>
-    <t>2.5E+1083707984</t>
-  </si>
-  <si>
-    <t>2.3E+26008991625</t>
-  </si>
-  <si>
-    <t>2.2E+782677988726</t>
-  </si>
-  <si>
-    <t>2.6E+948244863415</t>
-  </si>
-  <si>
     <t>O(n^2)</t>
   </si>
   <si>
@@ -117,6 +99,24 @@
   </si>
   <si>
     <t>attactment</t>
+  </si>
+  <si>
+    <t>2^(10^6)</t>
+  </si>
+  <si>
+    <t>60*2^(10^6)</t>
+  </si>
+  <si>
+    <t>360*2^(10^6)</t>
+  </si>
+  <si>
+    <t>8640*2^(10^6)</t>
+  </si>
+  <si>
+    <t>2592000*2^(10^6)</t>
+  </si>
+  <si>
+    <t>3110400*2^(10^6)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -164,9 +164,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,7 +446,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -492,23 +489,23 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -576,19 +573,19 @@
         <v>63000</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -651,25 +648,31 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5">
-        <v>36</v>
-      </c>
-      <c r="F9" s="5">
-        <v>41</v>
-      </c>
-      <c r="G9" s="5">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <f>LN(B5)/LN(2)</f>
+        <v>19.931568569324174</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:G9" si="3">LN(C5)/LN(2)</f>
+        <v>25.838459164932694</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="3"/>
+        <v>31.745349760541213</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="3"/>
+        <v>36.330312261262371</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="3"/>
+        <v>41.237202856870887</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="3"/>
+        <v>44.822165357592041</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -697,25 +700,25 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
